--- a/natmiOut/OldD7/LR-pairs_lrc2p/Wnt4-Fzd2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Wnt4-Fzd2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.2289514582562</v>
+        <v>1.437774666666667</v>
       </c>
       <c r="H2">
-        <v>1.2289514582562</v>
+        <v>4.313324</v>
       </c>
       <c r="I2">
-        <v>0.2850038576781619</v>
+        <v>0.2965885866872326</v>
       </c>
       <c r="J2">
-        <v>0.2850038576781619</v>
+        <v>0.2965885866872326</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.175102371334286</v>
+        <v>0.2081856666666667</v>
       </c>
       <c r="N2">
-        <v>0.175102371334286</v>
+        <v>0.624557</v>
       </c>
       <c r="O2">
-        <v>0.01140144759325351</v>
+        <v>0.0127208067884984</v>
       </c>
       <c r="P2">
-        <v>0.01140144759325351</v>
+        <v>0.0127208067884984</v>
       </c>
       <c r="Q2">
-        <v>0.2151923145953894</v>
+        <v>0.2993240774964445</v>
       </c>
       <c r="R2">
-        <v>0.2151923145953894</v>
+        <v>2.693916697468</v>
       </c>
       <c r="S2">
-        <v>0.003249456547192644</v>
+        <v>0.003772846106922096</v>
       </c>
       <c r="T2">
-        <v>0.003249456547192644</v>
+        <v>0.003772846106922096</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.2289514582562</v>
+        <v>1.437774666666667</v>
       </c>
       <c r="H3">
-        <v>1.2289514582562</v>
+        <v>4.313324</v>
       </c>
       <c r="I3">
-        <v>0.2850038576781619</v>
+        <v>0.2965885866872326</v>
       </c>
       <c r="J3">
-        <v>0.2850038576781619</v>
+        <v>0.2965885866872326</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.3079343475794</v>
+        <v>13.42533133333333</v>
       </c>
       <c r="N3">
-        <v>13.3079343475794</v>
+        <v>40.275994</v>
       </c>
       <c r="O3">
-        <v>0.8665200527108755</v>
+        <v>0.8203304708596988</v>
       </c>
       <c r="P3">
-        <v>0.8665200527108755</v>
+        <v>0.8203304708596987</v>
       </c>
       <c r="Q3">
-        <v>16.35480532283547</v>
+        <v>19.30260128267289</v>
       </c>
       <c r="R3">
-        <v>16.35480532283547</v>
+        <v>173.723411544056</v>
       </c>
       <c r="S3">
-        <v>0.2469615577780838</v>
+        <v>0.2433006549687501</v>
       </c>
       <c r="T3">
-        <v>0.2469615577780838</v>
+        <v>0.2433006549687501</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.2289514582562</v>
+        <v>1.437774666666667</v>
       </c>
       <c r="H4">
-        <v>1.2289514582562</v>
+        <v>4.313324</v>
       </c>
       <c r="I4">
-        <v>0.2850038576781619</v>
+        <v>0.2965885866872326</v>
       </c>
       <c r="J4">
-        <v>0.2850038576781619</v>
+        <v>0.2965885866872326</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.87487024001476</v>
+        <v>0.04883999999999999</v>
       </c>
       <c r="N4">
-        <v>1.87487024001476</v>
+        <v>0.14652</v>
       </c>
       <c r="O4">
-        <v>0.1220784996958709</v>
+        <v>0.002984279434304292</v>
       </c>
       <c r="P4">
-        <v>0.1220784996958709</v>
+        <v>0.002984279434304292</v>
       </c>
       <c r="Q4">
-        <v>2.304124515507291</v>
+        <v>0.07022091471999999</v>
       </c>
       <c r="R4">
-        <v>2.304124515507291</v>
+        <v>0.6319882324799999</v>
       </c>
       <c r="S4">
-        <v>0.03479284335288553</v>
+        <v>0.0008851032197000839</v>
       </c>
       <c r="T4">
-        <v>0.03479284335288553</v>
+        <v>0.000885103219700084</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.56570580497694</v>
+        <v>1.437774666666667</v>
       </c>
       <c r="H5">
-        <v>1.56570580497694</v>
+        <v>4.313324</v>
       </c>
       <c r="I5">
-        <v>0.3630999348344429</v>
+        <v>0.2965885866872326</v>
       </c>
       <c r="J5">
-        <v>0.3630999348344429</v>
+        <v>0.2965885866872326</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.175102371334286</v>
+        <v>2.683402666666666</v>
       </c>
       <c r="N5">
-        <v>0.175102371334286</v>
+        <v>8.050208</v>
       </c>
       <c r="O5">
-        <v>0.01140144759325351</v>
+        <v>0.1639644429174985</v>
       </c>
       <c r="P5">
-        <v>0.01140144759325351</v>
+        <v>0.1639644429174985</v>
       </c>
       <c r="Q5">
-        <v>0.2741587992633193</v>
+        <v>3.858128374599111</v>
       </c>
       <c r="R5">
-        <v>0.2741587992633193</v>
+        <v>34.723155371392</v>
       </c>
       <c r="S5">
-        <v>0.004139864878128664</v>
+        <v>0.04862998239186032</v>
       </c>
       <c r="T5">
-        <v>0.004139864878128664</v>
+        <v>0.04862998239186032</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.56570580497694</v>
+        <v>1.589574</v>
       </c>
       <c r="H6">
-        <v>1.56570580497694</v>
+        <v>4.768721999999999</v>
       </c>
       <c r="I6">
-        <v>0.3630999348344429</v>
+        <v>0.3279022207198701</v>
       </c>
       <c r="J6">
-        <v>0.3630999348344429</v>
+        <v>0.3279022207198702</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.3079343475794</v>
+        <v>0.2081856666666667</v>
       </c>
       <c r="N6">
-        <v>13.3079343475794</v>
+        <v>0.624557</v>
       </c>
       <c r="O6">
-        <v>0.8665200527108755</v>
+        <v>0.0127208067884984</v>
       </c>
       <c r="P6">
-        <v>0.8665200527108755</v>
+        <v>0.0127208067884984</v>
       </c>
       <c r="Q6">
-        <v>20.83631006025707</v>
+        <v>0.330926522906</v>
       </c>
       <c r="R6">
-        <v>20.83631006025707</v>
+        <v>2.978338706154</v>
       </c>
       <c r="S6">
-        <v>0.3146333746720569</v>
+        <v>0.004171180795297025</v>
       </c>
       <c r="T6">
-        <v>0.3146333746720569</v>
+        <v>0.004171180795297026</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.56570580497694</v>
+        <v>1.589574</v>
       </c>
       <c r="H7">
-        <v>1.56570580497694</v>
+        <v>4.768721999999999</v>
       </c>
       <c r="I7">
-        <v>0.3630999348344429</v>
+        <v>0.3279022207198701</v>
       </c>
       <c r="J7">
-        <v>0.3630999348344429</v>
+        <v>0.3279022207198702</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.87487024001476</v>
+        <v>13.42533133333333</v>
       </c>
       <c r="N7">
-        <v>1.87487024001476</v>
+        <v>40.275994</v>
       </c>
       <c r="O7">
-        <v>0.1220784996958709</v>
+        <v>0.8203304708596988</v>
       </c>
       <c r="P7">
-        <v>0.1220784996958709</v>
+        <v>0.8203304708596987</v>
       </c>
       <c r="Q7">
-        <v>2.935495218369618</v>
+        <v>21.340557628852</v>
       </c>
       <c r="R7">
-        <v>2.935495218369618</v>
+        <v>192.065018659668</v>
       </c>
       <c r="S7">
-        <v>0.04432669528425728</v>
+        <v>0.268988183119072</v>
       </c>
       <c r="T7">
-        <v>0.04432669528425728</v>
+        <v>0.268988183119072</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.812585617133051</v>
+        <v>1.589574</v>
       </c>
       <c r="H8">
-        <v>0.812585617133051</v>
+        <v>4.768721999999999</v>
       </c>
       <c r="I8">
-        <v>0.1884452262299442</v>
+        <v>0.3279022207198701</v>
       </c>
       <c r="J8">
-        <v>0.1884452262299442</v>
+        <v>0.3279022207198702</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.175102371334286</v>
+        <v>0.04883999999999999</v>
       </c>
       <c r="N8">
-        <v>0.175102371334286</v>
+        <v>0.14652</v>
       </c>
       <c r="O8">
-        <v>0.01140144759325351</v>
+        <v>0.002984279434304292</v>
       </c>
       <c r="P8">
-        <v>0.01140144759325351</v>
+        <v>0.002984279434304292</v>
       </c>
       <c r="Q8">
-        <v>0.1422856684721314</v>
+        <v>0.07763479415999998</v>
       </c>
       <c r="R8">
-        <v>0.1422856684721314</v>
+        <v>0.6987131474399998</v>
       </c>
       <c r="S8">
-        <v>0.00214854837105951</v>
+        <v>0.0009785518537570152</v>
       </c>
       <c r="T8">
-        <v>0.00214854837105951</v>
+        <v>0.0009785518537570152</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.812585617133051</v>
+        <v>1.589574</v>
       </c>
       <c r="H9">
-        <v>0.812585617133051</v>
+        <v>4.768721999999999</v>
       </c>
       <c r="I9">
-        <v>0.1884452262299442</v>
+        <v>0.3279022207198701</v>
       </c>
       <c r="J9">
-        <v>0.1884452262299442</v>
+        <v>0.3279022207198702</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.3079343475794</v>
+        <v>2.683402666666666</v>
       </c>
       <c r="N9">
-        <v>13.3079343475794</v>
+        <v>8.050208</v>
       </c>
       <c r="O9">
-        <v>0.8665200527108755</v>
+        <v>0.1639644429174985</v>
       </c>
       <c r="P9">
-        <v>0.8665200527108755</v>
+        <v>0.1639644429174985</v>
       </c>
       <c r="Q9">
-        <v>10.81383604459393</v>
+        <v>4.265467110463999</v>
       </c>
       <c r="R9">
-        <v>10.81383604459393</v>
+        <v>38.38920399417599</v>
       </c>
       <c r="S9">
-        <v>0.1632915673658841</v>
+        <v>0.05376430495174415</v>
       </c>
       <c r="T9">
-        <v>0.1632915673658841</v>
+        <v>0.05376430495174416</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.812585617133051</v>
+        <v>1.104440333333333</v>
       </c>
       <c r="H10">
-        <v>0.812585617133051</v>
+        <v>3.313321</v>
       </c>
       <c r="I10">
-        <v>0.1884452262299442</v>
+        <v>0.2278273537140099</v>
       </c>
       <c r="J10">
-        <v>0.1884452262299442</v>
+        <v>0.22782735371401</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.87487024001476</v>
+        <v>0.2081856666666667</v>
       </c>
       <c r="N10">
-        <v>1.87487024001476</v>
+        <v>0.624557</v>
       </c>
       <c r="O10">
-        <v>0.1220784996958709</v>
+        <v>0.0127208067884984</v>
       </c>
       <c r="P10">
-        <v>0.1220784996958709</v>
+        <v>0.0127208067884984</v>
       </c>
       <c r="Q10">
-        <v>1.523492591026785</v>
+        <v>0.2299286470885556</v>
       </c>
       <c r="R10">
-        <v>1.523492591026785</v>
+        <v>2.069357823797</v>
       </c>
       <c r="S10">
-        <v>0.02300511049300057</v>
+        <v>0.002898147747730805</v>
       </c>
       <c r="T10">
-        <v>0.02300511049300057</v>
+        <v>0.002898147747730805</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.704809132782286</v>
+        <v>1.104440333333333</v>
       </c>
       <c r="H11">
-        <v>0.704809132782286</v>
+        <v>3.313321</v>
       </c>
       <c r="I11">
-        <v>0.1634509812574511</v>
+        <v>0.2278273537140099</v>
       </c>
       <c r="J11">
-        <v>0.1634509812574511</v>
+        <v>0.22782735371401</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.175102371334286</v>
+        <v>13.42533133333333</v>
       </c>
       <c r="N11">
-        <v>0.175102371334286</v>
+        <v>40.275994</v>
       </c>
       <c r="O11">
-        <v>0.01140144759325351</v>
+        <v>0.8203304708596988</v>
       </c>
       <c r="P11">
-        <v>0.01140144759325351</v>
+        <v>0.8203304708596987</v>
       </c>
       <c r="Q11">
-        <v>0.1234137504882399</v>
+        <v>14.82747741289711</v>
       </c>
       <c r="R11">
-        <v>0.1234137504882399</v>
+        <v>133.447296716074</v>
       </c>
       <c r="S11">
-        <v>0.00186357779687269</v>
+        <v>0.1868937203469329</v>
       </c>
       <c r="T11">
-        <v>0.00186357779687269</v>
+        <v>0.1868937203469329</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.704809132782286</v>
+        <v>1.104440333333333</v>
       </c>
       <c r="H12">
-        <v>0.704809132782286</v>
+        <v>3.313321</v>
       </c>
       <c r="I12">
-        <v>0.1634509812574511</v>
+        <v>0.2278273537140099</v>
       </c>
       <c r="J12">
-        <v>0.1634509812574511</v>
+        <v>0.22782735371401</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>13.3079343475794</v>
+        <v>0.04883999999999999</v>
       </c>
       <c r="N12">
-        <v>13.3079343475794</v>
+        <v>0.14652</v>
       </c>
       <c r="O12">
-        <v>0.8665200527108755</v>
+        <v>0.002984279434304292</v>
       </c>
       <c r="P12">
-        <v>0.8665200527108755</v>
+        <v>0.002984279434304292</v>
       </c>
       <c r="Q12">
-        <v>9.379553666641034</v>
+        <v>0.05394086588</v>
       </c>
       <c r="R12">
-        <v>9.379553666641034</v>
+        <v>0.48546779292</v>
       </c>
       <c r="S12">
-        <v>0.1416335528948509</v>
+        <v>0.0006799004862606895</v>
       </c>
       <c r="T12">
-        <v>0.1416335528948509</v>
+        <v>0.0006799004862606895</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.704809132782286</v>
+        <v>1.104440333333333</v>
       </c>
       <c r="H13">
-        <v>0.704809132782286</v>
+        <v>3.313321</v>
       </c>
       <c r="I13">
-        <v>0.1634509812574511</v>
+        <v>0.2278273537140099</v>
       </c>
       <c r="J13">
-        <v>0.1634509812574511</v>
+        <v>0.22782735371401</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.87487024001476</v>
+        <v>2.683402666666666</v>
       </c>
       <c r="N13">
-        <v>1.87487024001476</v>
+        <v>8.050208</v>
       </c>
       <c r="O13">
-        <v>0.1220784996958709</v>
+        <v>0.1639644429174985</v>
       </c>
       <c r="P13">
-        <v>0.1220784996958709</v>
+        <v>0.1639644429174985</v>
       </c>
       <c r="Q13">
-        <v>1.321425667944119</v>
+        <v>2.963658135640889</v>
       </c>
       <c r="R13">
-        <v>1.321425667944119</v>
+        <v>26.672923220768</v>
       </c>
       <c r="S13">
-        <v>0.01995385056572755</v>
+        <v>0.03735558513308553</v>
       </c>
       <c r="T13">
-        <v>0.01995385056572755</v>
+        <v>0.03735558513308554</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.7159183333333333</v>
+      </c>
+      <c r="H14">
+        <v>2.147755</v>
+      </c>
+      <c r="I14">
+        <v>0.1476818388788872</v>
+      </c>
+      <c r="J14">
+        <v>0.1476818388788872</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.2081856666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.624557</v>
+      </c>
+      <c r="O14">
+        <v>0.0127208067884984</v>
+      </c>
+      <c r="P14">
+        <v>0.0127208067884984</v>
+      </c>
+      <c r="Q14">
+        <v>0.1490439355038889</v>
+      </c>
+      <c r="R14">
+        <v>1.341395419535</v>
+      </c>
+      <c r="S14">
+        <v>0.001878632138548476</v>
+      </c>
+      <c r="T14">
+        <v>0.001878632138548476</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.7159183333333333</v>
+      </c>
+      <c r="H15">
+        <v>2.147755</v>
+      </c>
+      <c r="I15">
+        <v>0.1476818388788872</v>
+      </c>
+      <c r="J15">
+        <v>0.1476818388788872</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>13.42533133333333</v>
+      </c>
+      <c r="N15">
+        <v>40.275994</v>
+      </c>
+      <c r="O15">
+        <v>0.8203304708596988</v>
+      </c>
+      <c r="P15">
+        <v>0.8203304708596987</v>
+      </c>
+      <c r="Q15">
+        <v>9.611440832607776</v>
+      </c>
+      <c r="R15">
+        <v>86.50296749347</v>
+      </c>
+      <c r="S15">
+        <v>0.1211479124249437</v>
+      </c>
+      <c r="T15">
+        <v>0.1211479124249437</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.7159183333333333</v>
+      </c>
+      <c r="H16">
+        <v>2.147755</v>
+      </c>
+      <c r="I16">
+        <v>0.1476818388788872</v>
+      </c>
+      <c r="J16">
+        <v>0.1476818388788872</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.04883999999999999</v>
+      </c>
+      <c r="N16">
+        <v>0.14652</v>
+      </c>
+      <c r="O16">
+        <v>0.002984279434304292</v>
+      </c>
+      <c r="P16">
+        <v>0.002984279434304292</v>
+      </c>
+      <c r="Q16">
+        <v>0.03496545139999999</v>
+      </c>
+      <c r="R16">
+        <v>0.3146890626</v>
+      </c>
+      <c r="S16">
+        <v>0.0004407238745865031</v>
+      </c>
+      <c r="T16">
+        <v>0.0004407238745865031</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.7159183333333333</v>
+      </c>
+      <c r="H17">
+        <v>2.147755</v>
+      </c>
+      <c r="I17">
+        <v>0.1476818388788872</v>
+      </c>
+      <c r="J17">
+        <v>0.1476818388788872</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.683402666666666</v>
+      </c>
+      <c r="N17">
+        <v>8.050208</v>
+      </c>
+      <c r="O17">
+        <v>0.1639644429174985</v>
+      </c>
+      <c r="P17">
+        <v>0.1639644429174985</v>
+      </c>
+      <c r="Q17">
+        <v>1.921097164782222</v>
+      </c>
+      <c r="R17">
+        <v>17.28987448304</v>
+      </c>
+      <c r="S17">
+        <v>0.02421457044080852</v>
+      </c>
+      <c r="T17">
+        <v>0.02421457044080852</v>
       </c>
     </row>
   </sheetData>
